--- a/biology/Médecine/Biotransformation/Biotransformation.xlsx
+++ b/biology/Médecine/Biotransformation/Biotransformation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biotransformation est une réaction chimique qui transforme un composé sous l'action d'un organisme vivant.
 Dans le domaine de la santé, le but est d'augmenter l'hydrosolubilité du médicament et de hâter ainsi son élimination par l'organisme. La biotransformation a donc un rôle de détoxification.
